--- a/src/attributions/attributions_ig_traj_82.xlsx
+++ b/src/attributions/attributions_ig_traj_82.xlsx
@@ -1004,19 +1004,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.2332953701045559</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1215775232020825</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01227710629313633</v>
+        <v>-0.01696128544291254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1025,79 +1025,79 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.05825697384406169</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0.06856166578804093</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.3050925977563839</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2048136039890151</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02342554091450567</v>
+        <v>-0.04788675786692552</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1530750302693183</v>
+        <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0.1745299874901763</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.1042328497332236</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.01816376495206397</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02938514333443699</v>
+        <v>0.01199259551909643</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.03530483880451132</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>-0.02602853288366473</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>0.05109286846831915</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.002514389211145952</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
         <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02895151857324763</v>
+        <v>-0.07326273848174572</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -1106,187 +1106,187 @@
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.01127296427688634</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>-0.01509153741078851</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>0.04977010937689253</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.05115079844650579</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.06762323368967504</v>
+        <v>-0.02569091810712523</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.004204601390371735</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0.03489534725284704</v>
       </c>
       <c r="AT2" t="n">
         <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0.4019285715394568</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1559715146073752</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.0004071128003440902</v>
+        <v>0.1817158704630198</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.2035321887561209</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0.1048545932218355</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>0.03887499065297684</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.04605507436665889</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.05705370608334999</v>
+        <v>-0.06993059069889433</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.02354529495147931</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>-0.09328110915889204</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0.01137782389887682</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.06291040398915934</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
         <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.07048714897478428</v>
+        <v>0.2201682824347131</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.105616473210002</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0.05129574046462667</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.2806308406858904</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.1077962767471225</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.01155660111618993</v>
+        <v>0.03185648009447709</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.0800704825195297</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>-0.01338752911591737</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.1141460088254104</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.06872168554821846</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.0003363828156697899</v>
+        <v>-0.008905235856516088</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.04527422935944913</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0.0813380124370686</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>-0.01435922754042312</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.01218337775383059</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.04679988782972314</v>
+        <v>-0.05808591236067093</v>
       </c>
       <c r="CR2" t="n">
         <v>0</v>
@@ -1295,79 +1295,79 @@
         <v>-0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0275754175990302</v>
+        <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>0.008554948762218724</v>
       </c>
       <c r="CV2" t="n">
         <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.1186008382603216</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.06809701393260513</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02434248835731292</v>
+        <v>-0.00607367629787228</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.04111813779263393</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>0.05901625074053585</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.1618005465304499</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.03274888211475598</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.07111797710533414</v>
+        <v>0.05308970628970495</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.05288606090492425</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>0.0386348140581884</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.04925092266500275</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.02586356426098887</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.001883268553680946</v>
+        <v>-0.06831145570818677</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1376,160 +1376,160 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.01510859393762771</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0.0241020604391625</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0.1683124043464669</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.00260803920900936</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
         <v>-0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.03487429374591752</v>
+        <v>0.008637107718921904</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.08098147835536387</v>
+        <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>-0.03924956942119807</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.07178653429223192</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.05169720207292505</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
         <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.06398160145740564</v>
+        <v>0.03164859151616266</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.07799842991255</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>0.1158710773417946</v>
       </c>
       <c r="EO2" t="n">
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0</v>
+        <v>-0.050897134189718</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.02529096888612118</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.05452544516884102</v>
+        <v>-0.03085907331247343</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.0189622991695296</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0</v>
+        <v>0.04781031119224126</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.1235785901709618</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.0745788636891233</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.01006990686381218</v>
+        <v>0.0002580707424343078</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0460170121253907</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0.05577873056653924</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>0.01276096312976278</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.1025360965041165</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.001323240809439432</v>
+        <v>-0.05855743204801458</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.02567930638241192</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0.02889505165479432</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>-0.01246971079960427</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.02506556032302953</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
         <v>-0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.004060325657694789</v>
+        <v>0.003663750043819337</v>
       </c>
       <c r="FU2" t="n">
         <v>-0</v>
@@ -1538,19 +1538,19 @@
         <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.01605472502093789</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>-0.01085045161967639</v>
       </c>
       <c r="FY2" t="n">
         <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0</v>
+        <v>-0.07665654274515049</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.03224553008595551</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
         <v>-0</v>
@@ -1559,16 +1559,16 @@
         <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
         <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.09895068540837168</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0.06537995516653258</v>
       </c>
     </row>
     <row r="3">
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
@@ -1792,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
@@ -2714,22 +2714,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.3107181658316272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1809266736662366</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03504217078454774</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.03551857557280489</v>
+        <v>-0.02976183197466981</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0</v>
+        <v>-0.1089181402345552</v>
       </c>
       <c r="H5" t="n">
         <v>-0</v>
@@ -2741,22 +2741,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.3302584820222674</v>
       </c>
       <c r="L5" t="n">
-        <v>0.299325986080046</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.07333611374717935</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06631085790143386</v>
+        <v>-0.02825186627542952</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0.151789881411773</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
@@ -2765,28 +2765,28 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>0.144097412044897</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04792696848028165</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03214880713986173</v>
+        <v>-0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.08378105439245166</v>
+        <v>0.1192934849905792</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0.03582591913338262</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.111938198532726</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.01458236354783527</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.00740977720066927</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.06907121503981965</v>
+        <v>-0.06891180794846247</v>
       </c>
       <c r="AG5" t="n">
         <v>-0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>-0.007874992180588052</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,130 +2822,130 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.05442387994615624</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.03283186425010233</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.007237979806306279</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.03234165784757197</v>
+        <v>0.03662718346129588</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>-0.04408780541395883</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.3889169223815113</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.1525557598656007</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0.01440697338602886</v>
+        <v>-0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.04325291559599423</v>
+        <v>0.1248313835413273</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>-0.212670887687977</v>
       </c>
       <c r="BA5" t="n">
         <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.06153536150635553</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.04809077206013975</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.02314519143968512</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.05641708099849536</v>
+        <v>-0.1093347263335778</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>0.00583425322384413</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0.03084231173901917</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.113433078356982</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.01346212564836318</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.1256712393823438</v>
+        <v>0.06088361335801287</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0</v>
+        <v>0.09032817548396981</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0</v>
+        <v>0.2007610812890766</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.07458976292879498</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.01278100678728839</v>
+        <v>-0</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.03958158860562611</v>
+        <v>0.06973345118274878</v>
       </c>
       <c r="BZ5" t="n">
         <v>0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0</v>
+        <v>-0.1127718733048004</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
@@ -2954,28 +2954,28 @@
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.1212988825164547</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0.0682088930072685</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.02969515901992172</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.01924740670121041</v>
+        <v>-0.005417125945245017</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0</v>
+        <v>0.06415212799316655</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
@@ -2984,22 +2984,22 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.02478674206125636</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.05445596099001294</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.01029066429064317</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0113256807933658</v>
+        <v>-0.06844748443487526</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0</v>
+        <v>-0.01110338373231354</v>
       </c>
       <c r="CT5" t="n">
         <v>0</v>
@@ -3008,28 +3008,28 @@
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.1134612067608359</v>
       </c>
       <c r="CX5" t="n">
-        <v>-0.05746530487049352</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.02425031344431731</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.001071891225502198</v>
+        <v>-0.03201399282957606</v>
       </c>
       <c r="DA5" t="n">
         <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0.07369116918489647</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,22 +3038,22 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.1327486932150359</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0.04054881764642036</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.002034797112335562</v>
+        <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.03357152065520561</v>
+        <v>0.03343444082744317</v>
       </c>
       <c r="DJ5" t="n">
         <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>0.01865091493637253</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
@@ -3062,106 +3062,106 @@
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>-0</v>
+        <v>-0.04261432628975774</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.0520969853285979</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.01973998841574958</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.06778946746590249</v>
+        <v>-0.02666698192324661</v>
       </c>
       <c r="DS5" t="n">
         <v>-0</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0</v>
+        <v>0.01409836475492657</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.1537431790890832</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.02940684868483763</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0.005971251188265726</v>
+        <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.02546257373597238</v>
+        <v>-0.003475030533211908</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>0.02857536895009037</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.04773616490797271</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0.0893524743812668</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.05272822186866837</v>
+        <v>-0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.02248194204724876</v>
+        <v>0.007373688342398373</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>0.1027058546723979</v>
       </c>
       <c r="EM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>-0.08419215416467166</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0.04200814468172526</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.02347551432078287</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.02952545018536282</v>
+        <v>-0.08735358421727883</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0.04622208832402133</v>
       </c>
       <c r="EV5" t="n">
         <v>-0</v>
@@ -3170,112 +3170,112 @@
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.1194508212141385</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0.06199670722674529</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.03137714326352759</v>
+        <v>-0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.004093530459425512</v>
+        <v>-0.04313556389995044</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0</v>
+        <v>0.080300595491509</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>0.0005758533472516611</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.06276668200264546</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.05514001744683299</v>
+        <v>0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.02164823999307176</v>
+        <v>-0.01533983601259457</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>0</v>
+        <v>0.01122221905033754</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>-0.01300456028405107</v>
       </c>
       <c r="FR5" t="n">
-        <v>-0.001586308886331997</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.01014982122732334</v>
+        <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.001071508229049858</v>
+        <v>0.0009310833793891327</v>
       </c>
       <c r="FU5" t="n">
         <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>0</v>
+        <v>0.05051051856303174</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.06283966387512338</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.06140928709262899</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.01989491689628595</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
         <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>-0.01928284664266222</v>
       </c>
       <c r="GF5" t="n">
         <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3337,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -3364,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -3391,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
         <v>0</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
@@ -3526,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
         <v>0</v>
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3634,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
         <v>0</v>
@@ -3849,52 +3849,52 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.7226177502164575</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.4882286098625775</v>
       </c>
       <c r="C7" t="n">
-        <v>0.558264350349913</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>-0.3493060096212742</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2642721515295639</v>
+        <v>-0.02676210604847647</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.687997084993068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.4719971815945482</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8178860211996173</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0</v>
+        <v>-0.3592208256988224</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01927577968309403</v>
+        <v>-0.09454309483162013</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04676593136727577</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.2110626018427641</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1974791553955515</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0</v>
+        <v>-0.01728250871950817</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1453485817035098</v>
+        <v>0.1731899692097161</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
         <v>-0</v>
@@ -3930,46 +3930,46 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.02502764000874578</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.1191974022835985</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.1400215241929427</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>0.002956455043470465</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.2140051684849607</v>
+        <v>-0.001824197307364991</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.1961149672799135</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>0.02372103716121936</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.1257114464256575</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0</v>
+        <v>-0.1040499049579073</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.001910755792953736</v>
+        <v>-0.06101218418891219</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3978,25 +3978,25 @@
         <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.5655329479139322</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>0.521783398022534</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.5606376102413292</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>-0.08251340071932887</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1030890061391782</v>
+        <v>0.1938131556146309</v>
       </c>
       <c r="AY7" t="n">
         <v>-0</v>
@@ -4005,25 +4005,25 @@
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.09927567854737264</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.04559960281153577</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.09848569913164928</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.1227551954973371</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.2865999711346973</v>
+        <v>-0.1569624871599662</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -4032,28 +4032,28 @@
         <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.1866022626641878</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.05167378146342187</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0.2677203522761348</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.06350282815398646</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.2689070839047344</v>
+        <v>0.2252501183609297</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR7" t="n">
         <v>-0</v>
@@ -4062,22 +4062,22 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0.555043318622534</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.2770500840048498</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.3358350365018548</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0</v>
+        <v>-0.003984791352354891</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.1157869797834065</v>
+        <v>0.1419807414754423</v>
       </c>
       <c r="BZ7" t="n">
         <v>0</v>
@@ -4089,49 +4089,49 @@
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.2597209372775338</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>-0</v>
+        <v>-0.1532085283485708</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0.173308804639757</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>0.05197341564500706</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.04682112878113624</v>
+        <v>-0.03269896028559296</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.06586586111162017</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>0.004737188691362844</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.04103182954248798</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.1925100094852468</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.2214680807925222</v>
+        <v>-0.1509810715415653</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4140,79 +4140,79 @@
         <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
         <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.2203286073329066</v>
+        <v>-0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.1453273343928873</v>
       </c>
       <c r="CX7" t="n">
-        <v>-0.1549753728226656</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0.09245419350633609</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.1545025355524633</v>
+        <v>-0.03162842272909083</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0.09373536381323554</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>-0</v>
+        <v>-0.1326238028571796</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0.2482315376932613</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>0.01177950708157313</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.002964904905969817</v>
+        <v>-0.02020473672636965</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.1540487137237836</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>-0</v>
+        <v>-0.005570460096400613</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.1176128552316497</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.1142529811954348</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.1829339739991113</v>
+        <v>-0.09996581407363851</v>
       </c>
       <c r="DS7" t="n">
         <v>0</v>
@@ -4221,55 +4221,55 @@
         <v>-0</v>
       </c>
       <c r="DU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV7" t="n">
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.04374919644494865</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.06802829690655253</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.09490240497449169</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.003862392276417253</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.1059172128329596</v>
+        <v>-0.03181454285339198</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
         <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.3300990993795878</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.1454254834319706</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0.1969526323200853</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.07043852983578734</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.1026565954447268</v>
+        <v>0.1022587287372753</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL7" t="n">
         <v>-0</v>
@@ -4278,76 +4278,76 @@
         <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.04285151362270797</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>-0</v>
+        <v>-0.1457686915856674</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.1748668963537945</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>0.07529148136218708</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.1720734381085761</v>
+        <v>-0.008013022281075963</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.2586122087778059</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>-0</v>
+        <v>-0.1447617265706236</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0.1728279513499021</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>0.05895472197836762</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.1233395320995085</v>
+        <v>-0.035017077032135</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.2782646784680174</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.02229300997985641</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.0943820710018065</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>0.133195459604736</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.09282522139569585</v>
+        <v>-0.01497178857795096</v>
       </c>
       <c r="FL7" t="n">
         <v>-0</v>
@@ -4359,22 +4359,22 @@
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.1279421356627641</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.007053697419970867</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.01091615708741629</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>0.05885783436985463</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.004973671162270559</v>
+        <v>0.0006815740829485001</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
@@ -4383,37 +4383,37 @@
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.01319393944202755</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>0.03010909127683131</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.121006903028953</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.1218908080271759</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
         <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,100 +4421,100 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.231449532817269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6195706261411122</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1631846562920679</v>
+        <v>-0.02602322050085849</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.1398131571070172</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1997123745769718</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.2116385028745053</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7639145757630026</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.02295565948252952</v>
+        <v>-0.02342288765170563</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.2220543394636216</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.3291480655057881</v>
+        <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.04246209509597979</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09837783204926423</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01824549966749796</v>
+        <v>-0.04079366521686396</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.02203602072491659</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.03931360014967736</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.0360054280256781</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.1132181961584822</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.00257091242359126</v>
+        <v>0.03300217694965268</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.0008519130326991404</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -4523,160 +4523,160 @@
         <v>-0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1253176346836649</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.02510397344991293</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1636583129278013</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.02275485096065534</v>
+        <v>-0.01383255895856471</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>-0.05491635321977517</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
         <v>-0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.01481569857819165</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.1927712051469155</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.3908591299556574</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
         <v>-0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.05815585581405837</v>
+        <v>-0.03398318466189342</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0</v>
+        <v>-0.1371372767845399</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.1199914532321696</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.07341745866832408</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.1896189783653969</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.1365643790014984</v>
+        <v>-0.04037282880675956</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>-0.04105674093204414</v>
       </c>
       <c r="BI8" t="n">
         <v>-0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.04697918769957245</v>
+        <v>-0</v>
       </c>
       <c r="BL8" t="n">
         <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.07484272843651277</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0.2399095469662663</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
         <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.1569528733075432</v>
+        <v>0.01664173703562849</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.01953274941900041</v>
       </c>
       <c r="BR8" t="n">
         <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.05921123556179656</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.1101803944239804</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.3344955493086439</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.135918132657478</v>
+        <v>-0.0216952321110461</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>-0.05189314895563132</v>
       </c>
       <c r="CA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0.1339671412100581</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>-0.06383465070856573</v>
       </c>
       <c r="CF8" t="n">
-        <v>-0.1809217131826705</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.02656757488913213</v>
+        <v>-0.01187677874890978</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0</v>
+        <v>0.05728364794327888</v>
       </c>
       <c r="CJ8" t="n">
         <v>-0</v>
@@ -4685,25 +4685,25 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.06353134290369249</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.01738421990519874</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.05413466868275738</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.1261302698020296</v>
+        <v>0.01326820673287472</v>
       </c>
       <c r="CR8" t="n">
-        <v>0</v>
+        <v>-0.02525089470375305</v>
       </c>
       <c r="CS8" t="n">
         <v>-0</v>
@@ -4712,25 +4712,25 @@
         <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0.1105040561784277</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>-0.05259872699058874</v>
       </c>
       <c r="CX8" t="n">
-        <v>-0.1711653111115388</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.078302805142385</v>
+        <v>-0.0125576442849181</v>
       </c>
       <c r="DA8" t="n">
-        <v>0</v>
+        <v>0.06199085078588337</v>
       </c>
       <c r="DB8" t="n">
         <v>0</v>
@@ -4739,106 +4739,106 @@
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.07761132229988328</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="n">
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>-0</v>
+        <v>-0.06085770333485389</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0.1269438514325804</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.04262129145460868</v>
+        <v>0.03195048598017653</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>0.0006660263362072598</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0.01977417670754037</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>-0.02039671385414045</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.02412936241320578</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.06163733236018636</v>
+        <v>0.02068240529148602</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>0.00527219390041246</v>
       </c>
       <c r="DT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0.08823295720079598</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0</v>
+        <v>0.05016294788921499</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.1107065954623168</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0.02377872638519558</v>
+        <v>-0.01899071819336802</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0</v>
+        <v>-0.03761491852852761</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
         <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0.04079176525101745</v>
+        <v>-0</v>
       </c>
       <c r="EF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.04346520639092642</v>
       </c>
       <c r="EH8" t="n">
-        <v>-0.2051705418762798</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.04898678170973125</v>
+        <v>0.004594869148549702</v>
       </c>
       <c r="EK8" t="n">
-        <v>-0</v>
+        <v>0.03909524480897765</v>
       </c>
       <c r="EL8" t="n">
         <v>-0</v>
@@ -4847,142 +4847,142 @@
         <v>-0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0.002828675385566763</v>
+        <v>-0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>-0</v>
+        <v>-0.02680086748811106</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0.05485366253368779</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.08244633853266246</v>
+        <v>-0.02103375033263492</v>
       </c>
       <c r="ET8" t="n">
-        <v>0</v>
+        <v>0.03693007654662391</v>
       </c>
       <c r="EU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.1528992114640542</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
         <v>-0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.05376618620818475</v>
       </c>
       <c r="EZ8" t="n">
-        <v>-0.1850698827996039</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.05675828058583562</v>
+        <v>-0.008677473487327645</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0</v>
+        <v>0.06021680086869257</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.08182833154580925</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.006629406474221709</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0.1576378217800315</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.1470625237554702</v>
+        <v>-0.03940674981484957</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0</v>
+        <v>0.04944927289797777</v>
       </c>
       <c r="FM8" t="n">
         <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.03883355043359936</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0</v>
+        <v>-0.00599498073300684</v>
       </c>
       <c r="FR8" t="n">
-        <v>-0.03227987296432144</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.01695075428448588</v>
+        <v>0.006385529933991085</v>
       </c>
       <c r="FU8" t="n">
-        <v>-0</v>
+        <v>0.04169894456325476</v>
       </c>
       <c r="FV8" t="n">
         <v>-0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.1138582565633793</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
         <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0</v>
+        <v>-0.02021749811674222</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.1455836502875716</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
         <v>-0</v>
       </c>
       <c r="GC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0.04617970682211346</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
         <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.09516795922178353</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -4990,10 +4990,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -5044,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -5071,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -5098,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -5125,10 +5125,10 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
@@ -5206,10 +5206,10 @@
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>0</v>
@@ -5233,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
         <v>0</v>
@@ -5260,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
         <v>0</v>
@@ -5314,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -5341,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
         <v>0</v>
@@ -5395,10 +5395,10 @@
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI9" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
         <v>0</v>
@@ -5449,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
         <v>0</v>
@@ -5476,10 +5476,10 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ9" t="n">
         <v>0</v>
@@ -5503,10 +5503,10 @@
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS9" t="n">
         <v>0</v>
@@ -5556,109 +5556,109 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.4001686762298062</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2044734746845709</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.004547446418364486</v>
+        <v>-0.5159006436192732</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02253882023111411</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0.07873333470691944</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.2756489100235527</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2415016272057646</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02417725519217442</v>
+        <v>-0.5343532966935378</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04356054435092083</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>-0.3144857595395151</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.3061308033766915</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.01282643199223778</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
         <v>-0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.03516292528038908</v>
+        <v>0.1597305177040074</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.03590002723669794</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>-0.04825412413785513</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.2266943237783364</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.03001240175230589</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.034770180766604</v>
+        <v>-0.1950448762278785</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.003509458873659702</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0</v>
+        <v>-0.09352691846122628</v>
       </c>
       <c r="AJ10" t="n">
         <v>-0</v>
@@ -5667,79 +5667,79 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.1258649589799902</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0483086661438213</v>
+        <v>-0</v>
       </c>
       <c r="AN10" t="n">
         <v>-0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.02191263751980423</v>
+        <v>-0.1045379434475945</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.01239710800271414</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>-0.07808699114072805</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.8668851609817694</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.1085519981365459</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
         <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.04035039067486275</v>
+        <v>0.04007301025399031</v>
       </c>
       <c r="AY10" t="n">
         <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.02303278841283953</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0</v>
+        <v>0.2623290032615823</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>-0.05585686323084793</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.0813172961693629</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.05092956925792657</v>
+        <v>-0.3588898986606902</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.01454531249733495</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>-0.1498664949848927</v>
       </c>
       <c r="BK10" t="n">
         <v>0</v>
@@ -5748,106 +5748,106 @@
         <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.5538699842633923</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.06338917984981701</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0045855792317477</v>
+        <v>0.4864621215528249</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.01221100858964336</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>-0</v>
+        <v>0.2244949824960894</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.5470424339908312</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.09364139061277846</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>-0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.01842500739772305</v>
+        <v>-0.09759819039208856</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.03937421716792776</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0.1696704308535649</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>-0.1070202200280966</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0.05513416059702089</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.00382209235736244</v>
+        <v>0.09783827707330915</v>
       </c>
       <c r="CI10" t="n">
         <v>-0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0.02110907682883048</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0</v>
+        <v>0.04176838274777327</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>-0.3241209954199962</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.008672277479543959</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.03261431341854926</v>
+        <v>-0.4158470458616803</v>
       </c>
       <c r="CR10" t="n">
         <v>-0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0.02225674017216289</v>
+        <v>0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0</v>
+        <v>-0.1341663044247065</v>
       </c>
       <c r="CU10" t="n">
         <v>0</v>
@@ -5856,52 +5856,52 @@
         <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.04267894798918033</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0.05450751476269457</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.01886374512821607</v>
+        <v>0.06946477961922405</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0.01582755837292598</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>0.004624778099504242</v>
       </c>
       <c r="DD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.5412209041271064</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0.03504000537011224</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.04200916923247294</v>
+        <v>0.1347144560847658</v>
       </c>
       <c r="DJ10" t="n">
         <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0.01245263348701312</v>
+        <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>0</v>
+        <v>-0.1658464544988005</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
@@ -5910,52 +5910,52 @@
         <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>-0.1017549402236388</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0.01509660976465091</v>
+        <v>-0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.02759955662138006</v>
+        <v>-0.01393357221063471</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>-0.03051175571661651</v>
+        <v>0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0</v>
+        <v>0.1983664996227667</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.07413439978399194</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.04346689447405781</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
         <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.004937077044303269</v>
+        <v>-0.007939011521398483</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.03243672732846314</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>-0</v>
+        <v>0.02645707410225241</v>
       </c>
       <c r="EE10" t="n">
         <v>-0</v>
@@ -5964,133 +5964,133 @@
         <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>0.08306095000796687</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0.09457748551168589</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
         <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.01144744898107012</v>
+        <v>0.1508468751513619</v>
       </c>
       <c r="EK10" t="n">
         <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0.02031131976448528</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>0.02918013735743002</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>0.06253453905252539</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.01193957476075059</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.04668250669342848</v>
+        <v>0.0372940463589946</v>
       </c>
       <c r="ET10" t="n">
         <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.006203456973146028</v>
+        <v>0</v>
       </c>
       <c r="EV10" t="n">
-        <v>0</v>
+        <v>-0.07502145165239887</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>-0.02857053036401418</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0.05485785627830306</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.001300368470043141</v>
+        <v>0.06201553480535634</v>
       </c>
       <c r="FC10" t="n">
         <v>-0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0.01191309117355535</v>
+        <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>0.05038047156539201</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.1778235466788308</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0.01754974975419684</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.005841574988826152</v>
+        <v>-0.0396609680701673</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.0156024966929908</v>
+        <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0.03275358102115473</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>0.006062675627954728</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0.005503454051717122</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
         <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.005714484287911133</v>
+        <v>0.02472591231236161</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.007432649048732106</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0.2359631837601204</v>
       </c>
       <c r="FX10" t="n">
         <v>-0</v>
@@ -6099,10 +6099,10 @@
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.2913142755491064</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.01016562254221196</v>
+        <v>0</v>
       </c>
       <c r="GB10" t="n">
         <v>-0</v>
@@ -6111,13 +6111,13 @@
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.001706802622172354</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>0</v>
+        <v>-0.2283653159742479</v>
       </c>
       <c r="GG10" t="n">
         <v>0</v>
@@ -6125,25 +6125,25 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>-0.2997521493821963</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3279082292259122</v>
+        <v>0.6670171176451951</v>
       </c>
       <c r="C11" t="n">
-        <v>0.38439367839215</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01204118849142402</v>
+        <v>-0.1970431586795605</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6152,52 +6152,52 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-0.2147439267659787</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.2877921300900698</v>
+        <v>0.5417324225927</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4303113285793821</v>
+        <v>-0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0434961894492998</v>
+        <v>-0.4450219104143522</v>
       </c>
       <c r="O11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.02790575441034306</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.1800247531166304</v>
+        <v>0.3889975715489097</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1490204326449437</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.05776812591015913</v>
+        <v>0.1182154928231543</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -6206,19 +6206,19 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0</v>
+        <v>0.009806241548659139</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.08600980767440533</v>
+        <v>0.1521009631118795</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.1085152112772022</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.01427624218297989</v>
+        <v>-0.07735421193763947</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -6227,25 +6227,25 @@
         <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
         <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>-0.1170385635826632</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.07832880290918137</v>
+        <v>0.2477543621450191</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.07126308169818026</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.02715910590695674</v>
+        <v>0.02135426708340405</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -6254,58 +6254,58 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.1825032247390035</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.2085465789469895</v>
+        <v>0.7046411152950731</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.07965083404632009</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1247879136556075</v>
+        <v>0.2985285977666551</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>-0.2018624539477467</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.1488689688720887</v>
+        <v>-0.01263263144262765</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.1840417356246174</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.1618399946680094</v>
+        <v>-0.4024644869109993</v>
       </c>
       <c r="BH11" t="n">
         <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
@@ -6314,22 +6314,22 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0</v>
+        <v>-0.08981971825472129</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.03443802893135042</v>
+        <v>0.1408114805182554</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.1379744024166464</v>
+        <v>-0</v>
       </c>
       <c r="BO11" t="n">
         <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.09525377781358636</v>
+        <v>0.3641262165406196</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
@@ -6338,22 +6338,22 @@
         <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>0.1388563344212244</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.1578967916488675</v>
+        <v>0.5133368196230956</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.2043120599716044</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.01124651898259646</v>
+        <v>0.04344319934800958</v>
       </c>
       <c r="BZ11" t="n">
         <v>0</v>
@@ -6368,25 +6368,25 @@
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0</v>
+        <v>0.0619235834610161</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.08515539292747111</v>
+        <v>-0.1433000049060328</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0.06571305786305714</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-8.859919484799226e-05</v>
+        <v>-0.01153534219610146</v>
       </c>
       <c r="CI11" t="n">
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
@@ -6395,19 +6395,19 @@
         <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>-0.2771848578597977</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.01304703789670627</v>
+        <v>-0.1183622134044223</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.05831347134387715</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1202015135507615</v>
+        <v>-0.3045988322845404</v>
       </c>
       <c r="CR11" t="n">
         <v>-0</v>
@@ -6422,25 +6422,25 @@
         <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>0</v>
+        <v>0.03056683758198033</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.07192866887097706</v>
+        <v>-0.161600687649504</v>
       </c>
       <c r="CX11" t="n">
-        <v>-0.08235915057448429</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0308302500779245</v>
+        <v>0.0135809195033081</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
         <v>-0</v>
@@ -6449,19 +6449,19 @@
         <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0</v>
+        <v>0.2917427840649627</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.1392263494645605</v>
+        <v>-0.5228519181239446</v>
       </c>
       <c r="DG11" t="n">
-        <v>-0.008359329025507126</v>
+        <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.03976804673036341</v>
+        <v>0.06316924743805104</v>
       </c>
       <c r="DJ11" t="n">
         <v>0</v>
@@ -6470,28 +6470,28 @@
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
         <v>-0</v>
       </c>
       <c r="DN11" t="n">
-        <v>-0</v>
+        <v>-0.1663204951195936</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.08964911873984212</v>
+        <v>-0.2381630467071555</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0773696611464796</v>
+        <v>-0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.02671120081098631</v>
+        <v>-0.04753044652951902</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
@@ -6503,19 +6503,19 @@
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>-0.05667080589281725</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.05501081241997807</v>
+        <v>0.1349199257235902</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.08963577641923778</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.0524977277920148</v>
+        <v>-0.1188221727374267</v>
       </c>
       <c r="EB11" t="n">
         <v>0</v>
@@ -6524,31 +6524,31 @@
         <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE11" t="n">
         <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0</v>
+        <v>-0.07000491586962793</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0.0302929497077374</v>
+        <v>0.1862933391201466</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0.07099952952725608</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
         <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.08089777480011451</v>
+        <v>0.003830900903749491</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
         <v>-0</v>
@@ -6557,106 +6557,106 @@
         <v>-0</v>
       </c>
       <c r="EO11" t="n">
-        <v>0</v>
+        <v>-0.0143701094551972</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.1707852116072116</v>
+        <v>-0.1246645186903523</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.06128026538267973</v>
+        <v>-0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.1389522403430671</v>
+        <v>-0.05099301672039378</v>
       </c>
       <c r="ET11" t="n">
         <v>-0</v>
       </c>
       <c r="EU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
         <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0.05473948428792864</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.06096408379450619</v>
+        <v>-0.1523755514133901</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0.08382502824008595</v>
+        <v>-0</v>
       </c>
       <c r="FA11" t="n">
         <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01866885874013471</v>
+        <v>-0.06278753289593536</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0</v>
+        <v>0.1722323188365705</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.07957202390752328</v>
+        <v>-0.08474000121619571</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0.1277877202247584</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
         <v>0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.02854644677049162</v>
+        <v>-0.09477325793104015</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0</v>
+        <v>0.008554537453408452</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.1177611295037733</v>
+        <v>-0.0358571532023528</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0.00534233261360556</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.01595012106391226</v>
+        <v>0.003298426106906461</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW11" t="n">
         <v>0</v>
@@ -6665,19 +6665,19 @@
         <v>-0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0</v>
+        <v>-0.08276711158247461</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0.01008498829178506</v>
+        <v>-0.185131670278037</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.1318827004445405</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
         <v>-0</v>
@@ -6689,33 +6689,33 @@
         <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.4945887217873191</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2414973792522382</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1736989866930959</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.009436705659549398</v>
+        <v>-0.1811161944600052</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0.4497633571465519</v>
       </c>
       <c r="H12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6724,25 +6724,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.3266283592880189</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2549720699332252</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1195914801407985</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.108388161819492</v>
+        <v>-0.2159931598792174</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0.3779141855761516</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,133 +6751,133 @@
         <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.197605538855979</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05031232827332227</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1002843446932049</v>
+        <v>-0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1281546062249373</v>
+        <v>0.2899961565515073</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0</v>
+        <v>-0.1022310855888482</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.2015859634797505</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.002472257845630612</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.04968769694994989</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.02290778273348441</v>
+        <v>0.07442228857153688</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0.03441862996789023</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.04053019855205228</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0535260300023379</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.005513660791596145</v>
+        <v>-0</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.0362160866646019</v>
+        <v>0.04652238762083605</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>-0.1013103920219183</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.5375292070967715</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.1300121851859054</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.02129181283440344</v>
+        <v>-0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1222329789843151</v>
+        <v>0.08487879274508932</v>
       </c>
       <c r="AY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>-0.2014871789834176</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>0.1268106334154435</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.1031036088806882</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.1182227562286875</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.09154382798214329</v>
+        <v>-0.1224552512682073</v>
       </c>
       <c r="BH12" t="n">
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0.2236015612420611</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -6886,49 +6886,49 @@
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.1050440180017935</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0.09776072439275657</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0.06840257810209302</v>
+        <v>-0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.1004854643145714</v>
+        <v>0.3056496704363769</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0.08812691697629738</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.2509256467562377</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.07054204276120482</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.02614831542833361</v>
+        <v>-0</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.0006290779798296387</v>
+        <v>0.01705415631913215</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0.1178852241932192</v>
       </c>
       <c r="CB12" t="n">
         <v>-0</v>
@@ -6937,82 +6937,82 @@
         <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.14407089493221</v>
       </c>
       <c r="CF12" t="n">
-        <v>-0.04979884782320405</v>
+        <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.04571385732712348</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.03170712713214954</v>
+        <v>0.0459145800960754</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0.09744933411253932</v>
       </c>
       <c r="CK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL12" t="n">
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.2211977517155954</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.01199628925327777</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.01348149671526737</v>
+        <v>-0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.01831529411400978</v>
+        <v>-0.1240997738799082</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>-0</v>
+        <v>-0.06459507773574777</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.1127478844935151</v>
       </c>
       <c r="CX12" t="n">
-        <v>-0.04891068613274195</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.04039551969828229</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.0149345957486128</v>
+        <v>0.04555566506055841</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>0.09770152681155879</v>
       </c>
       <c r="DC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
         <v>0</v>
@@ -7021,49 +7021,49 @@
         <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0</v>
+        <v>-0.4365554473683361</v>
       </c>
       <c r="DG12" t="n">
-        <v>-0.012485153601874</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.0491418333260331</v>
+        <v>0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.09355745480671947</v>
+        <v>0.0909244103495148</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK12" t="n">
-        <v>-0</v>
+        <v>-0.06000934527004034</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN12" t="n">
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>-0</v>
+        <v>-0.07761742161332032</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.06718877935654442</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0.01371359010161138</v>
+        <v>-0</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.1286382439482967</v>
+        <v>0.06531854780485312</v>
       </c>
       <c r="DS12" t="n">
         <v>-0</v>
       </c>
       <c r="DT12" t="n">
-        <v>-0</v>
+        <v>-0.02761512472370018</v>
       </c>
       <c r="DU12" t="n">
         <v>0</v>
@@ -7075,49 +7075,49 @@
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.1527202552337326</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.08845035378975187</v>
+        <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.04726493231626662</v>
+        <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.01046766231949135</v>
+        <v>-0.1097229646934255</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>0</v>
+        <v>0.01786919965586809</v>
       </c>
       <c r="ED12" t="n">
         <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.03276897996888584</v>
       </c>
       <c r="EH12" t="n">
-        <v>-0.05736161422945642</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.09466370747495589</v>
+        <v>-0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.08204754211497815</v>
+        <v>0.09637008858672368</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0</v>
+        <v>0.09705993587118641</v>
       </c>
       <c r="EM12" t="n">
         <v>-0</v>
@@ -7126,55 +7126,55 @@
         <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.05841192856429108</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.009859420665864852</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.02903088299040021</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.01681246797988901</v>
+        <v>0.02490257533066366</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>0.0006737818749891012</v>
       </c>
       <c r="EV12" t="n">
         <v>-0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.1256010913832087</v>
       </c>
       <c r="EZ12" t="n">
-        <v>-0.0437465632017384</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.04424873295051997</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.02570156443725717</v>
+        <v>0.05239154725913782</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0.088380633875452</v>
       </c>
       <c r="FE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
         <v>-0</v>
@@ -7183,79 +7183,79 @@
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>-0.02721371476470683</v>
       </c>
       <c r="FI12" t="n">
-        <v>-0.04080074745698126</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.008089794052483732</v>
+        <v>0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.008381429619600672</v>
+        <v>-0.1474171625681975</v>
       </c>
       <c r="FL12" t="n">
         <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0.08977042735310241</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
         <v>-0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.004971443761288021</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.00698488042407876</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.03763303103997176</v>
+        <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.001938776059143823</v>
+        <v>0.01929652189949167</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0.02516763427565074</v>
       </c>
       <c r="FW12" t="n">
         <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.1352147534447707</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.03113503728586735</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.02445084447378807</v>
+        <v>-0</v>
       </c>
       <c r="GC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
         <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>0.09834058565547901</v>
       </c>
       <c r="GF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG12" t="n">
         <v>0</v>
@@ -7263,100 +7263,100 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.011763126702376</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3212921956703683</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003339728167050354</v>
+        <v>-0.3165747429840345</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.17041392881735</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0.4976760523760083</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.7543645248753629</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3010717669753207</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04470205064728471</v>
+        <v>-0.3163539261127508</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.1774447381386224</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-0.4468502498800208</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.3189409744994327</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.01038319383309363</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.03620516492851584</v>
+        <v>-0.01403900556412935</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.08097929132017401</v>
+        <v>-0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>-0.08812823621462393</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.2320694839676748</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.003227529599815699</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
         <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.01809298326853633</v>
+        <v>-0.07368945468531282</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -7365,25 +7365,25 @@
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.01791896669674863</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>-0.06102431715823462</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.1676043071566721</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0655914781192611</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.07317084641251766</v>
+        <v>-0.01681889901305281</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -7392,25 +7392,25 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0.0275020367626427</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0.04056532359303154</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>0.8833462777320521</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1399129264004288</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
         <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.03379103568027632</v>
+        <v>0.03919743928738281</v>
       </c>
       <c r="AY13" t="n">
         <v>0</v>
@@ -7419,241 +7419,241 @@
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0.1259699563661289</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0.2529533153444525</v>
       </c>
       <c r="BC13" t="n">
         <v>-0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.1769609719053305</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.1110001180088924</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.06681218658948629</v>
+        <v>-0.3446380212215771</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.08596846125238394</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>-0.2288504518030856</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.1231952779541088</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.07218584221478462</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
         <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.07080192119890744</v>
+        <v>0.4043138505825423</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.07690551467383588</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0</v>
+        <v>-0.007331020905588625</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.6072543173942083</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.1096434319316664</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.008014079027490864</v>
+        <v>0.08436678753474004</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0.06633883625839389</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>-0.1227202060607119</v>
       </c>
       <c r="CD13" t="n">
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0</v>
+        <v>-0.2382808936996956</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0.07866424890377623</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.006849069631621839</v>
+        <v>0.002088584171360656</v>
       </c>
       <c r="CI13" t="n">
         <v>-0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.03303115039539304</v>
+        <v>-0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0</v>
+        <v>0.1745298211874899</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>-0.2749993930548091</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.02901197982652249</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.08090644837569577</v>
+        <v>-0.2555836521925575</v>
       </c>
       <c r="CR13" t="n">
         <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.03733267532119711</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0</v>
+        <v>0.04278855124197548</v>
       </c>
       <c r="CV13" t="n">
         <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0</v>
+        <v>-0.2069775854379398</v>
       </c>
       <c r="CX13" t="n">
-        <v>-0.07408846688379765</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.02848242974671267</v>
+        <v>0.01247027549480552</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.02704808347452149</v>
+        <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>0.1497907531439451</v>
       </c>
       <c r="DE13" t="n">
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.5254555177713973</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0.03764865983125549</v>
+        <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.01009721120858502</v>
+        <v>0.1413700096189343</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.04768717982165948</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0</v>
+        <v>0.07715078650234251</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0</v>
+        <v>-0.1233050357300186</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0.008222545685357904</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
         <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.01471090368128762</v>
+        <v>0.009378940925894164</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT13" t="n">
         <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0.03387348985856883</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0</v>
+        <v>-0.0160044044265244</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>0.1648052995602487</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.04546612275363638</v>
+        <v>-0</v>
       </c>
       <c r="DZ13" t="n">
         <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.005355385101105273</v>
+        <v>-0.1216736366680187</v>
       </c>
       <c r="EB13" t="n">
         <v>-0</v>
@@ -7662,172 +7662,172 @@
         <v>0</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.06075729376532368</v>
+        <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>-0</v>
+        <v>0.05568947779455889</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.0361449113385342</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0.07729896467927481</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.05182145187470143</v>
+        <v>0.03936167744457823</v>
       </c>
       <c r="EK13" t="n">
         <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.06190861840934491</v>
+        <v>0</v>
       </c>
       <c r="EN13" t="n">
-        <v>0</v>
+        <v>0.2011178814294263</v>
       </c>
       <c r="EO13" t="n">
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>-0.1407502838647246</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0.004558514415171695</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.03709234714332098</v>
+        <v>-0.05179623093798153</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU13" t="n">
         <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.002047132349286741</v>
+        <v>-0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0</v>
+        <v>0.05813581741753918</v>
       </c>
       <c r="EX13" t="n">
         <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.2423099157119345</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0.08101733579422971</v>
+        <v>-0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.01215070507176588</v>
+        <v>-0.01000217972589195</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.04090160960844406</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0.138983347705345</v>
       </c>
       <c r="FG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>-0.1367755253307322</v>
       </c>
       <c r="FI13" t="n">
-        <v>-0.06832702803835228</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.02634180443524138</v>
+        <v>-0.1190693488997032</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0138799108756142</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>-0.1009883915129364</v>
       </c>
       <c r="FP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.01727348557558478</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0.01279398122539774</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
         <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.002704258391884967</v>
+        <v>0.01165686833771001</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0.007947793463660247</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0.03585855828510186</v>
       </c>
       <c r="FY13" t="n">
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0</v>
+        <v>-0.2440895327251988</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.02833288936684532</v>
+        <v>0</v>
       </c>
       <c r="GB13" t="n">
         <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.02594238420992746</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0.02223776331063541</v>
       </c>
     </row>
     <row r="14">
@@ -7835,10 +7835,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -7862,10 +7862,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -7889,10 +7889,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -7916,10 +7916,10 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -7943,10 +7943,10 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
@@ -8024,10 +8024,10 @@
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
@@ -8051,10 +8051,10 @@
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
@@ -8105,10 +8105,10 @@
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP14" t="n">
         <v>0</v>
@@ -8159,10 +8159,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -8186,10 +8186,10 @@
         <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
@@ -8240,10 +8240,10 @@
         <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
         <v>0</v>
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
         <v>0</v>
@@ -8321,10 +8321,10 @@
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ14" t="n">
         <v>0</v>
@@ -8348,10 +8348,10 @@
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS14" t="n">
         <v>0</v>
@@ -8404,22 +8404,22 @@
         <v>-0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>-0.4384947136024657</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.4837181303326901</v>
+        <v>0.5645430942875664</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1011321224664983</v>
+        <v>0.1551409449946548</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7135889250772213</v>
+        <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -8431,22 +8431,22 @@
         <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>-0.354901471396478</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.4603236852679321</v>
+        <v>0.41028599952497</v>
       </c>
       <c r="M15" t="n">
         <v>-0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.08311940479777509</v>
+        <v>0.4142356552794316</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7909084420737599</v>
+        <v>-0</v>
       </c>
       <c r="P15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -8458,22 +8458,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>-0.1702469538061594</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01273310528458531</v>
+        <v>-0.01073786436869537</v>
       </c>
       <c r="V15" t="n">
         <v>-0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.08624328100319553</v>
+        <v>-0.02253876921035746</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2007608190890949</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>-0</v>
@@ -8482,76 +8482,76 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>-0.1752997753759625</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.06232358185979157</v>
+        <v>-0.01211110896770389</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.392122228895762</v>
+        <v>-0.1356271840149547</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.006134845998059776</v>
+        <v>-0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0.2553302090699681</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.1789016156683903</v>
+        <v>0.08157467934765703</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.1141263111350211</v>
+        <v>0.005231567907129052</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.07471641483679752</v>
+        <v>-0</v>
       </c>
       <c r="AQ15" t="n">
         <v>-0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0</v>
+        <v>-0.5136470344013092</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.2635857548261275</v>
+        <v>0.3289629074724532</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.1593598305536869</v>
+        <v>-0.06395675400375711</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.2556824330613108</v>
+        <v>-0</v>
       </c>
       <c r="AZ15" t="n">
         <v>-0</v>
@@ -8563,28 +8563,28 @@
         <v>-0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>0.01794020934429201</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0.006135255985657877</v>
+        <v>0.1765326958229029</v>
       </c>
       <c r="BF15" t="n">
         <v>-0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.2195219066832691</v>
+        <v>0.511840733904689</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.2587536487903584</v>
+        <v>-0</v>
       </c>
       <c r="BI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK15" t="n">
         <v>-0</v>
@@ -8593,25 +8593,25 @@
         <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>-0.132512469572002</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.05622856788269703</v>
+        <v>0.07067015596357397</v>
       </c>
       <c r="BO15" t="n">
         <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.08136450995436029</v>
+        <v>-0.2492842350812189</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0.04248976225249354</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT15" t="n">
         <v>0</v>
@@ -8620,49 +8620,49 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>-0.213052409475797</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0.1350943287903879</v>
+        <v>0.3256010615675581</v>
       </c>
       <c r="BX15" t="n">
         <v>-0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.09985455391493527</v>
+        <v>-0.04387742635761212</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.3421985394425213</v>
+        <v>0</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC15" t="n">
         <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>0.0992704405291116</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.11263841454458</v>
+        <v>-0.0527130482163712</v>
       </c>
       <c r="CG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.01524071359645504</v>
+        <v>-0.06398015960785459</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0.1615587466840073</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
         <v>-0</v>
@@ -8674,22 +8674,22 @@
         <v>-0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>0.02230701693190685</v>
       </c>
       <c r="CO15" t="n">
-        <v>-0.2166620275421094</v>
+        <v>-0.01063438821268936</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.1970930590991976</v>
+        <v>-0.2216456591581533</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.07851282267442466</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT15" t="n">
         <v>0</v>
@@ -8698,25 +8698,25 @@
         <v>-0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>0.04862300897306415</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.09759931034029973</v>
+        <v>-0.06548826318079252</v>
       </c>
       <c r="CY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.09247213090641114</v>
+        <v>-0.06824023481499125</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0.1525754414125003</v>
+        <v>-0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -8728,46 +8728,46 @@
         <v>-0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>0.1839913823142336</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.1141532344859602</v>
+        <v>0.06450864131171612</v>
       </c>
       <c r="DH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.1308714569188927</v>
+        <v>0.1017461709560372</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.1088811437283467</v>
+        <v>-0</v>
       </c>
       <c r="DK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>-0</v>
+        <v>0.001281998847647639</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.04032626012800525</v>
+        <v>-0.1336619290198794</v>
       </c>
       <c r="DQ15" t="n">
         <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.05132421860716749</v>
+        <v>-0.07186357997485393</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.03183927898272661</v>
+        <v>0</v>
       </c>
       <c r="DT15" t="n">
         <v>0</v>
@@ -8779,28 +8779,28 @@
         <v>-0</v>
       </c>
       <c r="DW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>0.01114702460204591</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.004282115857634754</v>
+        <v>0.1962795853516722</v>
       </c>
       <c r="DZ15" t="n">
         <v>0</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.03749932053016122</v>
+        <v>0.04783134027460437</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.01378706041601852</v>
+        <v>-0</v>
       </c>
       <c r="EC15" t="n">
         <v>-0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE15" t="n">
         <v>0</v>
@@ -8809,46 +8809,46 @@
         <v>-0</v>
       </c>
       <c r="EG15" t="n">
-        <v>-0</v>
+        <v>-0.03830051660178573</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.1151263778457312</v>
+        <v>-0.01604447258788491</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.1295423773067345</v>
+        <v>-0.1059562249770709</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0.2180442761531817</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>0</v>
       </c>
       <c r="EM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO15" t="n">
         <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>0.05119050485141856</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.01364137386609964</v>
+        <v>0.06083607557816</v>
       </c>
       <c r="ER15" t="n">
         <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.04800974202493303</v>
+        <v>-0.1135161576824377</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0.234124968220659</v>
+        <v>0</v>
       </c>
       <c r="EU15" t="n">
         <v>0</v>
@@ -8863,22 +8863,22 @@
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>-0</v>
+        <v>0.06729635489164136</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.09752337473457719</v>
+        <v>-0.05246926284480415</v>
       </c>
       <c r="FA15" t="n">
         <v>0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.05265667637103337</v>
+        <v>-0.07641878991241856</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0.1247078284220094</v>
+        <v>0</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE15" t="n">
         <v>-0</v>
@@ -8887,22 +8887,22 @@
         <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>0.1346019355947578</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.09952242956962816</v>
+        <v>0.1747293272063864</v>
       </c>
       <c r="FJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.03866598368357672</v>
+        <v>0.1687715315515015</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.0002973000024204937</v>
+        <v>-0</v>
       </c>
       <c r="FM15" t="n">
         <v>-0</v>
@@ -8914,28 +8914,28 @@
         <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>0.0004358151069170103</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.001744647155505239</v>
+        <v>-0.06857647230406907</v>
       </c>
       <c r="FS15" t="n">
         <v>0</v>
       </c>
       <c r="FT15" t="n">
-        <v>-0.002005661370581443</v>
+        <v>0.01014899207572082</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0.07396992652904603</v>
+        <v>0</v>
       </c>
       <c r="FV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>-0.03037638362880518</v>
       </c>
       <c r="GA15" t="n">
-        <v>-0.01749823345844258</v>
+        <v>0.05303290725837673</v>
       </c>
       <c r="GB15" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.04730555511755828</v>
+        <v>0</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
@@ -8965,60 +8965,60 @@
         <v>-0</v>
       </c>
       <c r="GG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.2055062302758776</v>
       </c>
       <c r="C16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03683916759882468</v>
+        <v>-0.06296283833481794</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3547833935178428</v>
+        <v>-0.1173793847269422</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1250602354590888</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1741983083243653</v>
       </c>
       <c r="L16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.01884444247352463</v>
+        <v>-0.02533298134164554</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3057103380334179</v>
+        <v>-0.0969737424786737</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.1022222223254055</v>
+        <v>-0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9027,79 +9027,79 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.01966832453687259</v>
       </c>
       <c r="U16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.0349442478986255</v>
+        <v>-0.01800633461988629</v>
       </c>
       <c r="X16" t="n">
-        <v>0.04235176057092713</v>
+        <v>0.005469790198724632</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.01519135869092516</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0</v>
+        <v>0.00296221917877459</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
         <v>-0</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.09086797289105865</v>
+        <v>0.01760675474723862</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.01001488769725137</v>
+        <v>0.005139818909455873</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.02289316634889463</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0</v>
+        <v>0.02056016413595503</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.04044526556042553</v>
+        <v>-0.001399246776504192</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.03963593713940945</v>
+        <v>-0.03765856408717663</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.01946824651434064</v>
+        <v>-0</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
@@ -9108,214 +9108,214 @@
         <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>0.1150679278862735</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.02562441988211742</v>
+        <v>-0.02189075952143523</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.1064362083450412</v>
+        <v>-0.06768536372293865</v>
       </c>
       <c r="AZ16" t="n">
         <v>-0</v>
       </c>
       <c r="BA16" t="n">
-        <v>-0.06232446957059268</v>
+        <v>-0</v>
       </c>
       <c r="BB16" t="n">
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>-0</v>
+        <v>0.03888085688545283</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>-0.02323977808493483</v>
+        <v>-0.04369241631472425</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.08521011099759307</v>
+        <v>-0.03699069351055441</v>
       </c>
       <c r="BI16" t="n">
         <v>0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.06764040229326661</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.02839818555866282</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP16" t="n">
-        <v>-0.01768648861450009</v>
+        <v>0.01127386212315208</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0.03445366530423311</v>
+        <v>0.01186476311039469</v>
       </c>
       <c r="BR16" t="n">
         <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>-0.0112894410263994</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.06926009302663308</v>
       </c>
       <c r="BW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
         <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.01750305841238812</v>
+        <v>-0.02266213494695685</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.1229975602390975</v>
+        <v>-0.0200152355531692</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB16" t="n">
-        <v>-0.03310848093596791</v>
+        <v>-0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0</v>
+        <v>-0.03539780498795846</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.003365462985960408</v>
+        <v>-0.001408625079305106</v>
       </c>
       <c r="CI16" t="n">
-        <v>-0.05824854386675241</v>
+        <v>0.026281331614003</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.0257518473538831</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>0.003433776272628785</v>
       </c>
       <c r="CO16" t="n">
         <v>-0</v>
       </c>
       <c r="CP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.05121527903714149</v>
+        <v>-0.01316465808895808</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.1049594281383413</v>
+        <v>-0.04482779483835826</v>
       </c>
       <c r="CS16" t="n">
         <v>-0</v>
       </c>
       <c r="CT16" t="n">
-        <v>-0.02775279360055176</v>
+        <v>0</v>
       </c>
       <c r="CU16" t="n">
         <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0</v>
+        <v>-0.03338997257051114</v>
       </c>
       <c r="CX16" t="n">
         <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.001745427555589511</v>
+        <v>-0.001115817383746189</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0.06231183141890798</v>
+        <v>0.03221796259263329</v>
       </c>
       <c r="DB16" t="n">
         <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.04461523308337778</v>
+        <v>-0</v>
       </c>
       <c r="DD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.02174187665985625</v>
       </c>
       <c r="DG16" t="n">
         <v>-0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.02776171744374075</v>
+        <v>0.05561369450506172</v>
       </c>
       <c r="DJ16" t="n">
-        <v>-0.01836265340781762</v>
+        <v>-0.0007709387805039835</v>
       </c>
       <c r="DK16" t="n">
         <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0.00549168896012284</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0.008285007831750955</v>
       </c>
       <c r="DP16" t="n">
         <v>0</v>
@@ -9333,205 +9333,205 @@
         <v>0</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.03693479601456806</v>
+        <v>0.02190353624591798</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.007351926234829854</v>
+        <v>0.0001195746036537094</v>
       </c>
       <c r="DT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>-0.01928234004038574</v>
+        <v>0</v>
       </c>
       <c r="DV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>-0.0338882460357494</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ16" t="n">
         <v>-0</v>
       </c>
       <c r="EA16" t="n">
-        <v>-0.0156544122465318</v>
+        <v>0.006800529975173537</v>
       </c>
       <c r="EB16" t="n">
-        <v>-0.005693881864784967</v>
+        <v>0.007259939018529627</v>
       </c>
       <c r="EC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED16" t="n">
-        <v>-0.001962438628162093</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
         <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>-0</v>
+        <v>-0.04106491493501332</v>
       </c>
       <c r="EH16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.06379868000298267</v>
+        <v>0.009608438038561174</v>
       </c>
       <c r="EK16" t="n">
-        <v>-0.08781870846699054</v>
+        <v>0.03792198451674606</v>
       </c>
       <c r="EL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.008623515811407224</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO16" t="n">
         <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0</v>
+        <v>-0.02561544427955326</v>
       </c>
       <c r="EQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.01672359057504863</v>
+        <v>-0.009074469461897624</v>
       </c>
       <c r="ET16" t="n">
-        <v>-0.03583176138733492</v>
+        <v>0.005210748961827335</v>
       </c>
       <c r="EU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV16" t="n">
-        <v>-0.07899069256124475</v>
+        <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>-0</v>
+        <v>-0.03267916023496451</v>
       </c>
       <c r="EZ16" t="n">
         <v>0</v>
       </c>
       <c r="FA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.003921858631419507</v>
+        <v>0.0004481118777160255</v>
       </c>
       <c r="FC16" t="n">
-        <v>-0.05783205238049484</v>
+        <v>0.02772804836690708</v>
       </c>
       <c r="FD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.04264659626910198</v>
+        <v>0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG16" t="n">
         <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>-0</v>
+        <v>-0.01110881150690835</v>
       </c>
       <c r="FI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.001351009851728163</v>
+        <v>0.01156152095378102</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.01805791943282438</v>
+        <v>0.03026237868498058</v>
       </c>
       <c r="FM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.03126984406063023</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
         <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-0</v>
+        <v>-0.002298596435556907</v>
       </c>
       <c r="FR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT16" t="n">
-        <v>-0.004056844313568003</v>
+        <v>0.01189509514685068</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0.03162515143565013</v>
+        <v>0.02007546584446118</v>
       </c>
       <c r="FV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.05619997226415937</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>-0</v>
+        <v>-0.00357531190270161</v>
       </c>
       <c r="GA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC16" t="n">
         <v>0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.04060377734484689</v>
+        <v>-0.0154499706255827</v>
       </c>
       <c r="GE16" t="n">
         <v>-0</v>
       </c>
       <c r="GF16" t="n">
-        <v>-0.01349343037115546</v>
+        <v>-0</v>
       </c>
       <c r="GG16" t="n">
         <v>-0</v>
@@ -9539,64 +9539,64 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.3374306026109953</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1824944771107014</v>
+        <v>0.0502423444092687</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1523024611226423</v>
+        <v>0.8091658984004622</v>
       </c>
       <c r="G17" t="n">
         <v>-0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2905443302837051</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J17" t="n">
         <v>-0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.2909191633465786</v>
       </c>
       <c r="L17" t="n">
         <v>-0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2536841812968356</v>
+        <v>-0.01337441899121863</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1512283692882135</v>
+        <v>0.6941656809888945</v>
       </c>
       <c r="P17" t="n">
         <v>-0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3097644242663743</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>-0</v>
       </c>
       <c r="S17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-0</v>
+        <v>-0.03594662030736007</v>
       </c>
       <c r="U17" t="n">
         <v>-0</v>
@@ -9605,160 +9605,160 @@
         <v>-0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.07198307044691997</v>
+        <v>0.09139262485865764</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.01490693492025309</v>
+        <v>0.07070836100373644</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1309081608244874</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>-0</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>-0.04071108654159751</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.06433389517277452</v>
+        <v>0.03206132289908045</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.01812236354386985</v>
+        <v>0.03885116749737612</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.0302037121871562</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>-0.03347888550614748</v>
       </c>
       <c r="AM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.1221271165589674</v>
+        <v>-0.01546285018883909</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0.00250544191806451</v>
+        <v>0.1483786053787186</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0.03445703735600055</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>-0.2619379693169241</v>
       </c>
       <c r="AV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.04464523853190416</v>
+        <v>0.1587325660462941</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0.09218772942329544</v>
+        <v>0.5493858530745045</v>
       </c>
       <c r="AZ17" t="n">
         <v>-0</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.1045331667524247</v>
+        <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC17" t="n">
         <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>-0.1644495617786421</v>
       </c>
       <c r="BE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.1271177653109228</v>
+        <v>0.03334645334765674</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0.0480018966625286</v>
+        <v>0.1061260968733251</v>
       </c>
       <c r="BI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.07618939645279768</v>
+        <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM17" t="n">
-        <v>-0</v>
+        <v>-0.1473220451232191</v>
       </c>
       <c r="BN17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO17" t="n">
         <v>-0</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.02813844407594239</v>
+        <v>-0.05951756902958124</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.01048270829543936</v>
+        <v>0.002220260349993671</v>
       </c>
       <c r="BR17" t="n">
         <v>0</v>
       </c>
       <c r="BS17" t="n">
-        <v>-0.02368240029452904</v>
+        <v>-0</v>
       </c>
       <c r="BT17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU17" t="n">
         <v>-0</v>
       </c>
       <c r="BV17" t="n">
-        <v>-0</v>
+        <v>-0.1213061964526997</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -9767,124 +9767,124 @@
         <v>-0</v>
       </c>
       <c r="BY17" t="n">
-        <v>-0.01513266043246932</v>
+        <v>0.09559784864333409</v>
       </c>
       <c r="BZ17" t="n">
-        <v>-0.07345815352164702</v>
+        <v>0.2660342382698038</v>
       </c>
       <c r="CA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.1197655419285048</v>
+        <v>0</v>
       </c>
       <c r="CC17" t="n">
         <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>0.08138857651729396</v>
       </c>
       <c r="CF17" t="n">
         <v>-0</v>
       </c>
       <c r="CG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH17" t="n">
-        <v>-0.04230177784655591</v>
+        <v>-0.009376841250926615</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.04783781645279256</v>
+        <v>-0.1263505582024618</v>
       </c>
       <c r="CJ17" t="n">
         <v>0</v>
       </c>
       <c r="CK17" t="n">
-        <v>-0.06150686399459919</v>
+        <v>-0</v>
       </c>
       <c r="CL17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN17" t="n">
-        <v>-0</v>
+        <v>0.01509434110607554</v>
       </c>
       <c r="CO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>-0.02829606486543022</v>
+        <v>-0.1479330668738598</v>
       </c>
       <c r="CR17" t="n">
-        <v>-0.01808913375667719</v>
+        <v>0.04558480581820458</v>
       </c>
       <c r="CS17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.03615497408093077</v>
+        <v>0</v>
       </c>
       <c r="CU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW17" t="n">
-        <v>-0</v>
+        <v>0.05482058933012713</v>
       </c>
       <c r="CX17" t="n">
         <v>0</v>
       </c>
       <c r="CY17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>-0.02761757887386736</v>
+        <v>-0.004585366525197714</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.04820752331540488</v>
+        <v>-0.1240952985657715</v>
       </c>
       <c r="DB17" t="n">
         <v>-0</v>
       </c>
       <c r="DC17" t="n">
-        <v>-0.08128734056471418</v>
+        <v>0</v>
       </c>
       <c r="DD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF17" t="n">
-        <v>-0</v>
+        <v>0.08697526527842013</v>
       </c>
       <c r="DG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>-0.03304981808781744</v>
+        <v>-0.04591916056388112</v>
       </c>
       <c r="DJ17" t="n">
-        <v>-0.009444215864686693</v>
+        <v>-0.002179638146404585</v>
       </c>
       <c r="DK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL17" t="n">
-        <v>-0.004768001744875789</v>
+        <v>-0</v>
       </c>
       <c r="DM17" t="n">
         <v>-0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="DO17" t="n">
-        <v>-0</v>
+        <v>0.02725694368313264</v>
       </c>
       <c r="DP17" t="n">
         <v>-0</v>
@@ -9902,208 +9902,208 @@
         <v>-0</v>
       </c>
       <c r="DR17" t="n">
-        <v>-0.0469306044073887</v>
+        <v>-0.06048250370340799</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.02906250163378788</v>
+        <v>0.0196107594272775</v>
       </c>
       <c r="DT17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.0509412744858164</v>
+        <v>-0</v>
       </c>
       <c r="DV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW17" t="n">
         <v>-0</v>
       </c>
       <c r="DX17" t="n">
-        <v>0</v>
+        <v>0.07872797930177589</v>
       </c>
       <c r="DY17" t="n">
         <v>0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.04259080793775903</v>
+        <v>-0.06100857010638141</v>
       </c>
       <c r="EB17" t="n">
-        <v>-0.006275244409498439</v>
+        <v>-0.06325387351678034</v>
       </c>
       <c r="EC17" t="n">
         <v>0</v>
       </c>
       <c r="ED17" t="n">
-        <v>-0.0104677721500124</v>
+        <v>-0</v>
       </c>
       <c r="EE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG17" t="n">
-        <v>0</v>
+        <v>0.04977103764035621</v>
       </c>
       <c r="EH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI17" t="n">
         <v>-0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>-0.05787098007385219</v>
+        <v>-0.003032765859472093</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.03796926519871442</v>
+        <v>-0.1204894559007509</v>
       </c>
       <c r="EL17" t="n">
         <v>0</v>
       </c>
       <c r="EM17" t="n">
-        <v>-0.05518468073481096</v>
+        <v>0</v>
       </c>
       <c r="EN17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO17" t="n">
         <v>-0</v>
       </c>
       <c r="EP17" t="n">
-        <v>-0</v>
+        <v>0.006730110823425828</v>
       </c>
       <c r="EQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES17" t="n">
-        <v>-0.04325750392793719</v>
+        <v>-0.04323829076264494</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.01984062521348004</v>
+        <v>0.02255567655046177</v>
       </c>
       <c r="EU17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV17" t="n">
-        <v>-0.0144275245192416</v>
+        <v>-0</v>
       </c>
       <c r="EW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY17" t="n">
-        <v>0</v>
+        <v>0.04801215224340864</v>
       </c>
       <c r="EZ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB17" t="n">
-        <v>-0.03832073785391633</v>
+        <v>-0.03292266317893534</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.04907133013942414</v>
+        <v>-0.1244997306457424</v>
       </c>
       <c r="FD17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE17" t="n">
-        <v>-0.08719769377772436</v>
+        <v>-0</v>
       </c>
       <c r="FF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH17" t="n">
-        <v>-0</v>
+        <v>-0.01285297256217167</v>
       </c>
       <c r="FI17" t="n">
         <v>-0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.01739544832349564</v>
+        <v>-0.0366336767811095</v>
       </c>
       <c r="FL17" t="n">
-        <v>-0.01490760376183046</v>
+        <v>-0.1280715727300959</v>
       </c>
       <c r="FM17" t="n">
         <v>-0</v>
       </c>
       <c r="FN17" t="n">
-        <v>-0.02936374100127055</v>
+        <v>0</v>
       </c>
       <c r="FO17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP17" t="n">
         <v>-0</v>
       </c>
       <c r="FQ17" t="n">
-        <v>-0</v>
+        <v>0.002633585223439075</v>
       </c>
       <c r="FR17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.01374015120499644</v>
+        <v>-0.06401241497032328</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.01699407296624467</v>
+        <v>-0.1560363073533319</v>
       </c>
       <c r="FV17" t="n">
         <v>0</v>
       </c>
       <c r="FW17" t="n">
-        <v>-0.09418961768752562</v>
+        <v>0</v>
       </c>
       <c r="FX17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0</v>
+        <v>-0.04460305674436464</v>
       </c>
       <c r="GA17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC17" t="n">
         <v>-0</v>
       </c>
       <c r="GD17" t="n">
-        <v>-0.03904594477012203</v>
+        <v>0.0966687840145305</v>
       </c>
       <c r="GE17" t="n">
         <v>0</v>
       </c>
       <c r="GF17" t="n">
-        <v>-0.03637104968532026</v>
+        <v>0</v>
       </c>
       <c r="GG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
